--- a/TestData/testdata.xlsx
+++ b/TestData/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fda772a2f6b5398/Desktop/MMA-Training/Workspace/MercuryTours/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2426A550-7CC4-4B98-B34C-088B8102FC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{2426A550-7CC4-4B98-B34C-088B8102FC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48CE8853-4716-4ABE-B8F9-0F398378032E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{779D3A8D-DA41-497F-AE6D-4E0FB8570630}"/>
+    <workbookView xWindow="2472" yWindow="672" windowWidth="17280" windowHeight="8964" xr2:uid="{779D3A8D-DA41-497F-AE6D-4E0FB8570630}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterPage" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>FirstName</t>
   </si>
@@ -101,13 +101,82 @@
   </si>
   <si>
     <t>(777)666-5555</t>
+  </si>
+  <si>
+    <t>Rumana</t>
+  </si>
+  <si>
+    <t>Rahman</t>
+  </si>
+  <si>
+    <t>(777)666-4444</t>
+  </si>
+  <si>
+    <t>rumana@gmail.com</t>
+  </si>
+  <si>
+    <t>133, Main St</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t>rumana123</t>
+  </si>
+  <si>
+    <t>Nassim</t>
+  </si>
+  <si>
+    <t>AbdurRahim</t>
+  </si>
+  <si>
+    <t>(777)666-3333</t>
+  </si>
+  <si>
+    <t>nassimrahman@gmail.com</t>
+  </si>
+  <si>
+    <t>113, Main St</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>FairFax</t>
+  </si>
+  <si>
+    <t>rahim123</t>
+  </si>
+  <si>
+    <t>Bakari</t>
+  </si>
+  <si>
+    <t>Simba</t>
+  </si>
+  <si>
+    <t>(777)666-1111</t>
+  </si>
+  <si>
+    <t>simba@gmail.com</t>
+  </si>
+  <si>
+    <t>333, Main St</t>
+  </si>
+  <si>
+    <t>Woodside</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>simba678</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +202,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,11 +255,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,26 +576,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA57D08-BA3A-4BC6-96C7-217841D072C4}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -598,7 +673,122 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2">
+        <v>20709</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2">
+        <v>20411</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2">
+        <v>21223</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -606,16 +796,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B042ED56-09B0-4FBF-9424-F165E3045114}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -634,6 +823,30 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
